--- a/evaluation_matrix.xlsx
+++ b/evaluation_matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://artemis401944.sharepoint.com/sites/TFInnovation/Shared Documents/Hackathon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="795" documentId="11_8DDDE0535FD10A4A7CFD1BDEC1D8316D74A00293" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7262A211-2975-4349-AE42-90CD6A1FF11D}"/>
+  <xr:revisionPtr revIDLastSave="819" documentId="11_8DDDE0535FD10A4A7CFD1BDEC1D8316D74A00293" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C9B5E8F-8312-43A3-BD1C-1CB945FE2283}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="93">
   <si>
     <t>Ageing Luxembourg</t>
   </si>
@@ -233,23 +233,10 @@
     <t>Geospatial</t>
   </si>
   <si>
-    <t>https://lustat.statec.lu/vis?lc=en&amp;pg=0&amp;snb=1&amp;df%5bds%5d=ds-release&amp;df%5bid%5d=DSD_CENSUS_GROUP1_3%40DF_B1607&amp;df%5bag%5d=LU1&amp;df%5bvs%5d=1.0&amp;dq=..A10.._T.................&amp;pd=2021%2C2021&amp;to%5bTIME_PERIOD%5d=false</t>
-  </si>
-  <si>
     <t>https://lustat.statec.lu/vis?lc=en&amp;pg=0&amp;snb=1&amp;df%5bds%5d=ds-release&amp;df%5bid%5d=DSD_CENSUS_GROUP7_10%40DF_B1626&amp;df%5bag%5d=LU1&amp;df%5bvs%5d=1.0&amp;dq=..A10._T..................&amp;pd=2021%2C2021&amp;to%5bTIME_PERIOD%5d=false</t>
   </si>
   <si>
-    <t>https://lustat.statec.lu/vis?lc=en&amp;pg=0&amp;snb=1&amp;df%5bds%5d=ds-release&amp;df%5bid%5d=DSD_CENSUS_GROUP11_14%40DF_B1632&amp;df%5bag%5d=LU1&amp;df%5bvs%5d=1.0&amp;dq=..A10._T._T%2BY_LT15%2BY15T29%2BY30T49%2BY50T64%2BY65T84%2BY_GE85.................&amp;pd=2021%2C2021&amp;to%5bTIME_PERIOD%5d=false
-https://lustat.statec.lu/vis?lc=en&amp;pg=0&amp;snb=1&amp;df%5bds%5d=ds-release&amp;df%5bid%5d=DSD_CENSUS_GROUP1_3%40DF_B1607&amp;df%5bag%5d=LU1&amp;df%5bvs%5d=1.0&amp;dq=..A10.._T.................&amp;pd=2021%2C2021&amp;to%5bTIME_PERIOD%5d=false</t>
-  </si>
-  <si>
-    <t>https://ec.europa.eu/eurostat/databrowser/view/gov_10a_exp__custom_18639017/default/table</t>
-  </si>
-  <si>
     <t>https://data.public.lu/fr/datasets/series-statistiques-sur-les-pensions/#/resources/dd3f0107-80cc-4bf5-b297-0a8a739f18ef</t>
-  </si>
-  <si>
-    <t>https://lustat.statec.lu/vis?lc=en&amp;pg=0&amp;snb=1&amp;df[ds]=ds-release&amp;df[id]=DSD_CENSUS_HIST%40DF_B1752&amp;df[ag]=LU1&amp;df[vs]=1.0&amp;dq=..I._T.._T%2BY_LT5%2BY5T9%2BY10T14%2BY15T19%2BY20T24%2BY25T29%2BY30T34%2BY35T39%2BY40T44%2BY45T49%2BY50T54%2BY55T59%2BY60T64%2BY65T69%2BY70T74%2BY75T79%2BY80T84%2BY85T89%2BY90T94%2BY95T99%2BY_GE100%2B_U....&amp;pd=1879%2C&amp;to[TIME_PERIOD]=false</t>
   </si>
   <si>
     <t>Le Luxembourg doit se préparer et prendre les devants</t>
@@ -310,8 +297,16 @@
     <t>Dans quelle mesure, le vieillissement de la population luxembourgeoise impacte la société luxembourgeoise ?</t>
   </si>
   <si>
-    <t>https://ec.europa.eu/eurostat/databrowser/bookmark/12d63ab2-c358-4549-9e57-e875682347fa?lang=en&amp;createdAt=2025-10-28T12:21:18Z
-https://ec.europa.eu/eurostat/databrowser/bookmark/032451f7-edaa-4ca7-b6ef-68393f117fee?lang=en&amp;createdAt=2025-10-28T12:10:45Z</t>
+    <t>https://lustat.statec.lu/vis?lc=en&amp;pg=0&amp;snb=1&amp;df[ds]=ds-release&amp;df[id]=DSD_CENSUS_GROUP1_3%40DF_B1607&amp;df[ag]=LU1&amp;df[vs]=1.0&amp;dq=..A10.._T.................&amp;pd=2021%2C2021&amp;to[TIME_PERIOD]=false</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/eurostat/databrowser/view/gov_10a_exp/default/table?lang=fr</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/eurostat/databrowser/view/demo_pjangroup/default/table?lang=en</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/eurostat/databrowser/view/proj_23np/default/table?lang=en</t>
   </si>
 </sst>
 </file>
@@ -905,7 +900,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1016,42 +1011,43 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1564,8 +1560,8 @@
   </sheetPr>
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1574,10 +1570,10 @@
     <col min="2" max="2" width="13.33203125" style="28" customWidth="1"/>
     <col min="3" max="3" width="43.5546875" style="28" customWidth="1"/>
     <col min="4" max="4" width="51.109375" style="28" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" style="28" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="28" customWidth="1"/>
     <col min="6" max="6" width="18.21875" style="28" customWidth="1"/>
     <col min="7" max="7" width="16.21875" style="28" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" style="28" customWidth="1"/>
     <col min="9" max="9" width="255.77734375" style="28" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.88671875" style="28"/>
   </cols>
@@ -1587,7 +1583,7 @@
         <v>26</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1609,19 +1605,19 @@
         <v>56</v>
       </c>
       <c r="H3" s="53" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I3" s="53" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B4" s="58"/>
-      <c r="C4" s="54" t="s">
+    <row r="4" spans="1:9" s="31" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B4" s="57"/>
+      <c r="C4" s="58" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E4" s="34" t="s">
         <v>54</v>
@@ -1636,14 +1632,14 @@
         <v>67</v>
       </c>
       <c r="I4" s="51" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="31" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="57"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="35" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="31" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="58"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="35" t="s">
-        <v>77</v>
       </c>
       <c r="E5" s="36" t="s">
         <v>54</v>
@@ -1657,17 +1653,17 @@
       <c r="H5" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="37" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B6" s="58"/>
-      <c r="C6" s="55" t="s">
+      <c r="I5" s="66" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="31" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B6" s="57"/>
+      <c r="C6" s="59" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E6" s="36" t="s">
         <v>55</v>
@@ -1681,15 +1677,15 @@
       <c r="H6" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="I6" s="37" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="58"/>
-      <c r="C7" s="55"/>
+      <c r="I6" s="66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="31" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="57"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="35" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E7" s="36" t="s">
         <v>54</v>
@@ -1704,16 +1700,16 @@
         <v>67</v>
       </c>
       <c r="I7" s="37" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="31" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="58"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="38" t="s">
         <v>59</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E8" s="40" t="s">
         <v>54</v>
@@ -1728,110 +1724,110 @@
         <v>67</v>
       </c>
       <c r="I8" s="41" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="31" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="58"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="54" t="s">
+      <c r="A9" s="57"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="58" t="s">
         <v>60</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="63" t="s">
+      <c r="G9" s="61" t="s">
         <v>66</v>
       </c>
       <c r="H9" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="I9" s="59" t="s">
         <v>71</v>
       </c>
+      <c r="I9" s="54" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="10" spans="1:9" s="31" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="58"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="55"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="59"/>
       <c r="D10" s="43" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E10" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
       <c r="H10" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10" s="60"/>
+        <v>71</v>
+      </c>
+      <c r="I10" s="55"/>
     </row>
     <row r="11" spans="1:9" s="31" customFormat="1" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="58"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="62"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="60"/>
       <c r="D11" s="44" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E11" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
       <c r="H11" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="I11" s="61"/>
+        <v>71</v>
+      </c>
+      <c r="I11" s="56"/>
     </row>
     <row r="12" spans="1:9" s="31" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C12" s="56" t="s">
-        <v>74</v>
+      <c r="C12" s="64" t="s">
+        <v>70</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E12" s="47" t="s">
         <v>54</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G12" s="47" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H12" s="47" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I12" s="48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="31" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="57"/>
+      <c r="C13" s="65"/>
       <c r="D13" s="49" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E13" s="45" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H13" s="45" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I13" s="50" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -1842,26 +1838,26 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B11"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="G9:G11"/>
     <mergeCell ref="F9:F11"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B9:B11"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I7" r:id="rId1" display="https://lustat.statec.lu/vis?lc=en&amp;pg=0&amp;snb=1&amp;df%5bds%5d=ds-release&amp;df%5bid%5d=DSD_CENSUS_GROUP11_14%40DF_B1632&amp;df%5bag%5d=LU1&amp;df%5bvs%5d=1.0&amp;dq=..A10._T._T%2BY_LT15%2BY15T29%2BY30T49%2BY50T64%2BY65T84%2BY_GE85.................&amp;pd=2021%2C2021&amp;to%5bTIME_PERIOD%5d=false" xr:uid="{EC64A371-2D09-4FFC-A445-518548B9E124}"/>
-    <hyperlink ref="I5" r:id="rId2" xr:uid="{56CE9857-8A2C-4187-85B6-E781915684A5}"/>
-    <hyperlink ref="I6" r:id="rId3" xr:uid="{E5720BFA-7A63-4037-BD8B-EC92D95D4AFE}"/>
-    <hyperlink ref="I8" r:id="rId4" xr:uid="{BE4D07AB-BE8C-452D-BFEC-B3D9A04A41C4}"/>
-    <hyperlink ref="I9" r:id="rId5" xr:uid="{72889C1F-2CCE-409F-8506-7AEA68AE3E19}"/>
-    <hyperlink ref="I13" r:id="rId6" location="/resources/dd3f0107-80cc-4bf5-b297-0a8a739f18ef" xr:uid="{D179C175-19D0-4BDE-A88E-4E63B28C34DA}"/>
-    <hyperlink ref="I12" r:id="rId7" display="https://ec.europa.eu/eurostat/databrowser/bookmark/12d63ab2-c358-4549-9e57-e875682347fa?lang=en&amp;createdAt=2025-10-28T12:21:18Z" xr:uid="{3CF54C80-AE4D-447C-ADF1-F03A8D9DFF44}"/>
-    <hyperlink ref="I4" r:id="rId8" display="https://lustat.statec.lu/vis?lc=en&amp;pg=0&amp;snb=1&amp;df[ds]=ds-release&amp;df[id]=DSD_CENSUS_HIST%40DF_B1752&amp;df[ag]=LU1&amp;df[vs]=1.0&amp;dq=..I._T.._T%2BY_LT5%2BY5T9%2BY10T14%2BY15T19%2BY20T24%2BY25T29%2BY30T34%2BY35T39%2BY40T44%2BY45T49%2BY50T54%2BY55T59%2BY60T64%2BY65T69%2BY70T74%2BY75T79%2BY80T84%2BY85T89%2BY90T94%2BY95T99%2BY_GE100%2B_U....&amp;pd=1879%2C&amp;to[TIME_PERIOD]=false" xr:uid="{CE43999F-2C33-4836-9FE6-5964408461D6}"/>
+    <hyperlink ref="I5" r:id="rId1" xr:uid="{FEBC717E-8549-40FE-ABA1-B0419824538A}"/>
+    <hyperlink ref="I6" r:id="rId2" xr:uid="{09FEECB6-0657-4DAC-BA63-3BF40FF3BB69}"/>
+    <hyperlink ref="I7" r:id="rId3" xr:uid="{AD0A684D-7601-4F20-8206-2D7A47D52BF3}"/>
+    <hyperlink ref="I8" r:id="rId4" xr:uid="{1CB68CF5-C794-4D21-996B-4C5C2FBECBB8}"/>
+    <hyperlink ref="I9" r:id="rId5" xr:uid="{59DECDD4-F474-4C3D-AE71-9443FA061F1D}"/>
+    <hyperlink ref="I4" r:id="rId6" xr:uid="{CEAD6D0C-A9B0-4881-BDF5-DA9A12A99348}"/>
+    <hyperlink ref="I12" r:id="rId7" xr:uid="{61E6E81D-AEE9-4DBC-A35A-BC1F49010B32}"/>
+    <hyperlink ref="I13" r:id="rId8" location="/resources/dd3f0107-80cc-4bf5-b297-0a8a739f18ef" xr:uid="{E1A7B694-1887-4243-9024-D1A3D771314A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId9"/>
@@ -1869,14 +1865,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="5ba35efc-72e9-40be-b6b6-c301d64bb3a2" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="74e7b982-a6ca-4245-9abd-da220f6c5e60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2075,21 +2069,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="5ba35efc-72e9-40be-b6b6-c301d64bb3a2" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="74e7b982-a6ca-4245-9abd-da220f6c5e60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0E3EC80-E86C-468F-AF0A-107A14E35611}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B492202F-019F-4121-9DE6-1A66E9C55344}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5ba35efc-72e9-40be-b6b6-c301d64bb3a2"/>
-    <ds:schemaRef ds:uri="74e7b982-a6ca-4245-9abd-da220f6c5e60"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2114,9 +2107,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B492202F-019F-4121-9DE6-1A66E9C55344}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0E3EC80-E86C-468F-AF0A-107A14E35611}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5ba35efc-72e9-40be-b6b6-c301d64bb3a2"/>
+    <ds:schemaRef ds:uri="74e7b982-a6ca-4245-9abd-da220f6c5e60"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>